--- a/lists/list.xlsx
+++ b/lists/list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - list" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - list" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
-  <si>
-    <t>list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
   <si>
     <t>GALAXY</t>
   </si>
@@ -435,34 +439,56 @@
   </si>
   <si>
     <t>PISCO/MaNGA</t>
+  </si>
+  <si>
+    <t>sndec</t>
+  </si>
+  <si>
+    <t>snra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,24 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -498,359 +512,155 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffd5d5d5"/>
-      <rgbColor rgb="fffefefe"/>
-      <rgbColor rgb="ffa5d7a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFD5D5D5"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="FFA5D7A5"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1049,7 +859,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1068,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,9 +1129,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1338,7 +1154,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1357,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,9 +1420,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1620,7 +1442,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1639,7 +1461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1721,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1747,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1890,1206 +1712,1581 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F63"/>
+  <dimension ref="A1:IV62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="256" width="8.33203125" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F1" s="4"/>
+      <c r="G1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.005</v>
-      </c>
-      <c r="C3" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="F2" s="7"/>
+      <c r="G2" s="12">
+        <v>65.005880000000005</v>
+      </c>
+      <c r="H2" s="11">
+        <v>-54.93806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="B3" s="5">
+        <v>6.0309999999999999E-3</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.006031</v>
-      </c>
-      <c r="C4" t="s" s="11">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="12">
+        <v>335.81716999999998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-28.97522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B4" s="5">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
-        <v>0.00465</v>
-      </c>
-      <c r="C5" t="s" s="15">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12">
+        <v>192.30096</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-8.62819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="B5" s="5">
+        <v>2.882E-3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.002882</v>
-      </c>
-      <c r="C6" t="s" s="19">
+      <c r="F5" s="7"/>
+      <c r="G5" s="12">
+        <v>187.16833</v>
+      </c>
+      <c r="H5" s="12">
+        <v>9.2611100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="19">
+      <c r="B6" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0.003201</v>
-      </c>
-      <c r="C7" t="s" s="23">
+      <c r="F6" s="7"/>
+      <c r="G6" s="12">
+        <v>195.17417</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2.4960599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s" s="23">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="23">
-        <v>9</v>
-      </c>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="B7" s="5">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.0052</v>
-      </c>
-      <c r="C8" t="s" s="11">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="12">
+        <v>185.48767000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4.4626900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="B8" s="5">
+        <v>4.9370000000000004E-3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.004937</v>
-      </c>
-      <c r="C9" t="s" s="11">
+      <c r="F8" s="7"/>
+      <c r="G8" s="12">
+        <v>230.48104000000001</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.0616899999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="B9" s="5">
+        <v>2.5718000000000001E-2</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10">
-        <v>0.025718</v>
-      </c>
-      <c r="C10" t="s" s="11">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="13">
+        <v>167.01337000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-12.485939999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="B10" s="5">
+        <v>1.9220000000000001E-2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.01922</v>
-      </c>
-      <c r="C11" t="s" s="11">
+      <c r="F10" s="7"/>
+      <c r="G10" s="13">
+        <v>161.28825000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <v>22.077310000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="B11" s="5">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.01036</v>
-      </c>
-      <c r="C12" t="s" s="11">
+      <c r="F11" s="7"/>
+      <c r="G11" s="13">
+        <v>196.05878999999999</v>
+      </c>
+      <c r="H11" s="13">
+        <v>-10.32025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="B12" s="5">
+        <v>1.0614E-2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.010614</v>
-      </c>
-      <c r="C13" t="s" s="11">
+      <c r="F12" s="7"/>
+      <c r="G12" s="13">
+        <v>306.27578999999997</v>
+      </c>
+      <c r="H12" s="13">
+        <v>-24.807670000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="B13" s="5">
+        <v>4.3639999999999998E-3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.004364</v>
-      </c>
-      <c r="C14" t="s" s="11">
+      <c r="F13" s="7"/>
+      <c r="G13" s="13">
+        <v>162.1095</v>
+      </c>
+      <c r="H13" s="13">
+        <v>12.53411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="B14" s="5">
+        <v>3.4559999999999999E-3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.003456</v>
-      </c>
-      <c r="C15" t="s" s="11">
+      <c r="F14" s="7"/>
+      <c r="G14" s="12">
+        <v>187.78942000000001</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-8.0489700000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="B15" s="5">
+        <v>9.3100000000000006E-3</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10">
-        <v>0.009310000000000001</v>
-      </c>
-      <c r="C16" t="s" s="11">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="13">
+        <v>151.33770999999999</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-34.222499999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="B16" s="5">
+        <v>5.5469999999999998E-3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.005547</v>
-      </c>
-      <c r="C17" t="s" s="11">
+      <c r="F16" s="7"/>
+      <c r="G16" s="13">
+        <v>356.06679000000003</v>
+      </c>
+      <c r="H16" s="13">
+        <v>10.77014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="B17" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="10">
-        <v>0.027</v>
-      </c>
-      <c r="C18" t="s" s="11">
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13">
+        <v>338.43239999999997</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-6.3689799999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="B18" s="5">
+        <v>8.9029999999999995E-3</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="10">
-        <v>0.008902999999999999</v>
-      </c>
-      <c r="C19" t="s" s="11">
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s" s="11">
+      <c r="F18" s="7"/>
+      <c r="G18" s="13">
+        <v>275.72561999999999</v>
+      </c>
+      <c r="H18" s="13">
+        <v>12.43422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="B19" s="5">
+        <v>4.6930000000000001E-3</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10">
-        <v>0.004693</v>
-      </c>
-      <c r="C20" t="s" s="25">
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13">
+        <v>41.499540000000003</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-7.5736100000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s" s="11">
+      <c r="B20" s="5">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="13">
+        <v>210.75345999999999</v>
+      </c>
+      <c r="H20" s="13">
+        <v>54.242440000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="13">
+        <v>85.446250000000006</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-64.300190000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.000804</v>
-      </c>
-      <c r="C21" t="s" s="25">
+      <c r="B22" s="5">
+        <v>4.6930000000000001E-3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.00395</v>
-      </c>
-      <c r="C22" t="s" s="25">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.004693</v>
-      </c>
-      <c r="C23" t="s" s="25">
+      <c r="F22" s="7"/>
+      <c r="G22" s="13">
+        <v>41.503459999999997</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-7.5723099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="9">
+      <c r="B23" s="5">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="10">
-        <v>0.00016</v>
-      </c>
-      <c r="C24" t="s" s="25">
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="13">
+        <v>308.68454000000003</v>
+      </c>
+      <c r="H23" s="13">
+        <v>60.121940000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="9">
+      <c r="B24" s="5">
+        <v>4.2399999999999998E-3</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="10">
-        <v>0.00424</v>
-      </c>
-      <c r="C25" t="s" s="25">
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="13">
+        <v>41.55742</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-30.229189999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="9">
+      <c r="B25" s="5">
+        <v>4.37E-4</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10">
-        <v>0.000437</v>
-      </c>
-      <c r="C26" t="s" s="25">
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="13">
+        <v>114.32092</v>
+      </c>
+      <c r="H25" s="13">
+        <v>65.59939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="B26" s="5">
+        <v>2.699E-3</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="10">
-        <v>0.002699</v>
-      </c>
-      <c r="C27" t="s" s="25">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="13">
+        <v>178.20029</v>
+      </c>
+      <c r="H26" s="13">
+        <v>178.20029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="9">
+      <c r="B27" s="5">
+        <v>4.8869999999999999E-3</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="10">
-        <v>0.004887</v>
-      </c>
-      <c r="C28" t="s" s="25">
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="13">
+        <v>180.11537999999999</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-1.081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="9">
+      <c r="B28" s="5">
+        <v>3.9789999999999999E-3</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10">
-        <v>0.003979</v>
-      </c>
-      <c r="C29" t="s" s="25">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="13">
+        <v>214.60678999999999</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-43.381610000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="B29" s="5">
+        <v>7.012E-3</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="10">
-        <v>0.007012</v>
-      </c>
-      <c r="C30" t="s" s="11">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="13">
+        <v>344.17403999999999</v>
+      </c>
+      <c r="H29" s="13">
+        <v>-36.772860000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D30" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="9">
+      <c r="B30" s="5">
+        <v>7.5699999999999997E-4</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="10">
-        <v>0.000757</v>
-      </c>
-      <c r="C31" t="s" s="25">
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="13">
+        <v>359.46008</v>
+      </c>
+      <c r="H30" s="13">
+        <v>-32.555970000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="B31" s="5">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="10">
-        <v>0.00435</v>
-      </c>
-      <c r="C32" t="s" s="25">
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="13">
+        <v>64.41704</v>
+      </c>
+      <c r="H31" s="13">
+        <v>-62.777859999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="9">
+      <c r="B32" s="5">
+        <v>6.509E-3</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="10">
-        <v>0.006509</v>
-      </c>
-      <c r="C33" t="s" s="25">
+      <c r="D32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s" s="11">
+      <c r="E32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="13">
+        <v>78.013750000000002</v>
+      </c>
+      <c r="H32" s="13">
+        <v>-15.69783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E33" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="9">
+      <c r="B33" s="5">
+        <v>3.349E-3</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="10">
-        <v>0.003349</v>
-      </c>
-      <c r="C34" t="s" s="25">
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="13">
+        <v>162.81075000000001</v>
+      </c>
+      <c r="H33" s="13">
+        <v>5.8496699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="9">
+      <c r="B34" s="5">
+        <v>2.5119999999999999E-3</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="10">
-        <v>0.002512</v>
-      </c>
-      <c r="C35" t="s" s="25">
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="13">
+        <v>156.28079</v>
+      </c>
+      <c r="H34" s="13">
+        <v>17.154060000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="9">
+      <c r="B35" s="5">
+        <v>2.5950000000000001E-3</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="10">
-        <v>0.002595</v>
-      </c>
-      <c r="C36" t="s" s="25">
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="13">
+        <v>160.97389999999999</v>
+      </c>
+      <c r="H35" s="13">
+        <v>11.671559999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="9">
+      <c r="B36" s="5">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="10">
-        <v>0.0279</v>
-      </c>
-      <c r="C37" t="s" s="11">
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s" s="11">
+      <c r="F36" s="7"/>
+      <c r="G36" s="13">
+        <v>213.71710999999999</v>
+      </c>
+      <c r="H36" s="13">
+        <v>36.791269999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="9">
+      <c r="B37" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="C38" t="s" s="11">
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="13">
+        <v>154.76957999999999</v>
+      </c>
+      <c r="H37" s="13">
+        <v>46.456470000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D38" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+      <c r="B38" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="10">
-        <v>0.028</v>
-      </c>
-      <c r="C39" t="s" s="11">
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="13">
+        <v>257.43007999999998</v>
+      </c>
+      <c r="H38" s="13">
+        <v>36.41892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="9">
+      <c r="B39" s="5">
+        <v>1.9383000000000001E-2</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="10">
-        <v>0.019383</v>
-      </c>
-      <c r="C40" t="s" s="11">
+      <c r="D39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s" s="11">
+      <c r="E39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E40" t="s" s="11">
+      <c r="F39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F40" t="s" s="11">
+      <c r="G39" s="5">
+        <v>319.11866700000002</v>
+      </c>
+      <c r="H39" s="5">
+        <v>-0.82769400000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="9">
+      <c r="B40" s="5">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="10">
-        <v>0.000133</v>
-      </c>
-      <c r="C41" t="s" s="11">
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="5">
+        <v>128.34182999999999</v>
+      </c>
+      <c r="H40" s="5">
+        <v>52.530940000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D41" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s" s="11">
+      <c r="B41" s="5">
+        <v>9.8069999999999997E-3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F41" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="B42" s="10">
-        <v>0.009807</v>
-      </c>
-      <c r="C42" t="s" s="11">
+      <c r="G41" s="5">
+        <v>157.44506999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>13.020479999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D42" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s" s="11">
+      <c r="B42" s="5">
+        <v>4.2529999999999998E-3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="B43" s="10">
-        <v>0.004253</v>
-      </c>
-      <c r="C43" t="s" s="11">
+      <c r="G42" s="5">
+        <v>181.030417</v>
+      </c>
+      <c r="H42" s="5">
+        <v>62.500332999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D43" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s" s="11">
+      <c r="B43" s="5">
+        <v>2.392E-3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F43" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="B44" s="10">
-        <v>0.002392</v>
-      </c>
-      <c r="C44" t="s" s="11">
+      <c r="G43" s="5">
+        <v>70.363154199999997</v>
+      </c>
+      <c r="H43" s="5">
+        <v>-2.8627305999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D44" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s" s="11">
+      <c r="B44" s="5">
+        <v>2.1919999999999999E-3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F44" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="B45" s="10">
-        <v>0.002192</v>
-      </c>
-      <c r="C45" t="s" s="11">
+      <c r="G44" s="5">
+        <v>24.177708299999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>15.738861099999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D45" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s" s="11">
+      <c r="B45" s="5">
+        <v>1.8652999999999999E-2</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="B46" s="10">
-        <v>0.018653</v>
-      </c>
-      <c r="C46" t="s" s="11">
+      <c r="G45" s="5">
+        <v>199.05175</v>
+      </c>
+      <c r="H45" s="5">
+        <v>30.944583000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D46" t="s" s="11">
+      <c r="B46" s="5">
+        <v>7.5810000000000001E-3</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E46" t="s" s="11">
+      <c r="F46" s="7"/>
+      <c r="G46" s="5">
+        <v>218.68700000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <v>48.672167000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8.8559999999999993E-3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F46" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="B47" s="10">
-        <v>0.007581</v>
-      </c>
-      <c r="C47" t="s" s="11">
+      <c r="G47" s="5">
+        <v>216.90258299999999</v>
+      </c>
+      <c r="H47" s="5">
+        <v>41.254167000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1.5410999999999999E-2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="5">
+        <v>29.897500000000001</v>
+      </c>
+      <c r="H48" s="5">
+        <v>14.005444000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1.917E-2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5">
+        <v>60.577083000000002</v>
+      </c>
+      <c r="H49" s="5">
+        <v>25.818556000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="5">
+        <v>274.96587499999998</v>
+      </c>
+      <c r="H50" s="5">
+        <v>74.565250000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.4190000000000002E-3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="5">
+        <v>218.224208</v>
+      </c>
+      <c r="H51" s="5">
+        <v>11.597028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2.5094000000000002E-2</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="5">
+        <v>126.70483299999999</v>
+      </c>
+      <c r="H52" s="5">
+        <v>20.375499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1.9325999999999999E-2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="5">
+        <v>173.65204199999999</v>
+      </c>
+      <c r="H53" s="5">
+        <v>54.890110999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2.1919999999999999E-3</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="5">
+        <v>24.200666999999999</v>
+      </c>
+      <c r="H54" s="5">
+        <v>15.758611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2.1687999999999999E-2</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s" s="11">
+      <c r="E55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5">
+        <v>163.97429199999999</v>
+      </c>
+      <c r="H55" s="5">
+        <v>36.863332999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1.9750000000000002E-3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5">
+        <v>154.58045799999999</v>
+      </c>
+      <c r="H56" s="5">
+        <v>41.427582999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2.8313000000000001E-2</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="5">
+        <v>284.51704000000001</v>
+      </c>
+      <c r="H57" s="5">
+        <v>43.939610000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="5">
+        <v>8.0590000000000002E-3</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5">
+        <v>111.68196</v>
+      </c>
+      <c r="H58" s="5">
+        <v>85.764359999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1.4267E-2</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="B48" s="10">
-        <v>0.008855999999999999</v>
-      </c>
-      <c r="C48" t="s" s="11">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s" s="11">
-        <v>88</v>
-      </c>
-      <c r="E48" t="s" s="11">
+      <c r="G59" s="5">
+        <v>357.85054200000002</v>
+      </c>
+      <c r="H59" s="5">
+        <v>20.110638999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="5">
+        <v>7.1549999999999999E-3</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F48" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="B49" s="10">
-        <v>0.015411</v>
-      </c>
-      <c r="C49" t="s" s="11">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s" s="11">
+      <c r="G60" s="5">
+        <v>236.41249999999999</v>
+      </c>
+      <c r="H60" s="5">
+        <v>28.088667000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1.9750000000000002E-3</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F49" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="B50" s="10">
-        <v>0.01917</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s" s="11">
+      <c r="G61" s="5">
+        <v>154.5675</v>
+      </c>
+      <c r="H61" s="5">
+        <v>41.441277999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2.9123E-2</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="B51" s="10">
-        <v>0.00495</v>
-      </c>
-      <c r="C51" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F51" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>115</v>
-      </c>
-      <c r="B52" s="10">
-        <v>0.007419</v>
-      </c>
-      <c r="C52" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="B53" s="10">
-        <v>0.025094</v>
-      </c>
-      <c r="C53" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F53" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="B54" s="10">
-        <v>0.019326</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F54" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="B55" s="10">
-        <v>0.002192</v>
-      </c>
-      <c r="C55" t="s" s="11">
-        <v>121</v>
-      </c>
-      <c r="D55" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F55" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="B56" s="10">
-        <v>0.021688</v>
-      </c>
-      <c r="C56" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="D56" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="E56" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="B57" s="10">
-        <v>0.001975</v>
-      </c>
-      <c r="C57" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="D57" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="E57" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>126</v>
-      </c>
-      <c r="B58" s="10">
-        <v>0.028313</v>
-      </c>
-      <c r="C58" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="D58" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="E58" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>128</v>
-      </c>
-      <c r="B59" s="10">
-        <v>0.008059</v>
-      </c>
-      <c r="C59" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="D59" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="B60" s="10">
-        <v>0.014267</v>
-      </c>
-      <c r="C60" t="s" s="11">
-        <v>131</v>
-      </c>
-      <c r="D60" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s" s="11">
-        <v>132</v>
-      </c>
-      <c r="F60" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="B61" s="10">
-        <v>0.007155</v>
-      </c>
-      <c r="C61" t="s" s="11">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s" s="11">
-        <v>88</v>
-      </c>
-      <c r="E61" t="s" s="11">
-        <v>132</v>
-      </c>
-      <c r="F61" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="B62" s="10">
-        <v>0.001975</v>
-      </c>
-      <c r="C62" t="s" s="11">
-        <v>136</v>
-      </c>
-      <c r="D62" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s" s="11">
-        <v>137</v>
-      </c>
-      <c r="F62" t="s" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>138</v>
-      </c>
-      <c r="B63" s="10">
-        <v>0.029123</v>
-      </c>
-      <c r="C63" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="D63" t="s" s="11">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s" s="11">
-        <v>140</v>
-      </c>
-      <c r="F63" t="s" s="11">
-        <v>90</v>
+      <c r="G62" s="5">
+        <v>228.283625</v>
+      </c>
+      <c r="H62" s="5">
+        <v>41.261139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/lists/list.xlsx
+++ b/lists/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="28800" yWindow="-9560" windowWidth="18300" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - list" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>GALAXY</t>
   </si>
@@ -147,9 +147,6 @@
     <t>SN2006ca</t>
   </si>
   <si>
-    <t>AMUSING/Hanin</t>
-  </si>
-  <si>
     <t>NGC1084</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t xml:space="preserve">SN1970G </t>
   </si>
   <si>
-    <t>Hanin</t>
-  </si>
-  <si>
     <t>NGC2082</t>
   </si>
   <si>
@@ -429,9 +423,6 @@
     <t>SN1999gi</t>
   </si>
   <si>
-    <t>PISCO/Hanin</t>
-  </si>
-  <si>
     <t xml:space="preserve">NGC5888   </t>
   </si>
   <si>
@@ -445,6 +436,18 @@
   </si>
   <si>
     <t>snra</t>
+  </si>
+  <si>
+    <t>SNIFS</t>
+  </si>
+  <si>
+    <t>VIMOS</t>
+  </si>
+  <si>
+    <t>PISCO/SNIFS</t>
+  </si>
+  <si>
+    <t>AMUSING/VIMOS</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -526,8 +529,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,19 +580,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1737,8 +1748,8 @@
   <dimension ref="A1:IV62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1755,7 +1766,7 @@
     <col min="257" max="16384" width="8.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+    <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1773,10 +1784,10 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
@@ -1803,7 +1814,7 @@
         <v>-54.93806</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13">
@@ -2189,19 +2200,19 @@
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5">
         <v>4.6930000000000001E-3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="13">
@@ -2213,1071 +2224,1074 @@
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5">
-        <v>8.0400000000000003E-4</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="13">
-        <v>210.75345999999999</v>
+        <v>213.71710999999999</v>
       </c>
       <c r="H20" s="13">
-        <v>54.242440000000002</v>
+        <v>36.791269999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5">
-        <v>3.9500000000000004E-3</v>
+        <v>0.03</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="13">
-        <v>85.446250000000006</v>
+        <v>154.76957999999999</v>
       </c>
       <c r="H21" s="13">
-        <v>-64.300190000000001</v>
+        <v>46.456470000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5">
-        <v>4.6930000000000001E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="13">
-        <v>41.503459999999997</v>
+        <v>257.43007999999998</v>
       </c>
       <c r="H22" s="13">
-        <v>-7.5723099999999999</v>
+        <v>36.41892</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5">
-        <v>1.6000000000000001E-4</v>
+        <v>1.9383000000000001E-2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13">
-        <v>308.68454000000003</v>
-      </c>
-      <c r="H23" s="13">
-        <v>60.121940000000002</v>
+        <v>86</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="5">
+        <v>319.11866700000002</v>
+      </c>
+      <c r="H23" s="5">
+        <v>-0.82769400000000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5">
-        <v>4.2399999999999998E-3</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13">
-        <v>41.55742</v>
-      </c>
-      <c r="H24" s="13">
-        <v>-30.229189999999999</v>
+        <v>86</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="5">
+        <v>128.34182999999999</v>
+      </c>
+      <c r="H24" s="5">
+        <v>52.530940000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5">
-        <v>4.37E-4</v>
+        <v>9.8069999999999997E-3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13">
-        <v>114.32092</v>
-      </c>
-      <c r="H25" s="13">
-        <v>65.59939</v>
+        <v>86</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="5">
+        <v>157.44506999999999</v>
+      </c>
+      <c r="H25" s="5">
+        <v>13.020479999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5">
-        <v>2.699E-3</v>
+        <v>4.2529999999999998E-3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13">
-        <v>178.20029</v>
-      </c>
-      <c r="H26" s="13">
-        <v>178.20029</v>
+        <v>86</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5">
+        <v>181.030417</v>
+      </c>
+      <c r="H26" s="5">
+        <v>62.500332999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5">
-        <v>4.8869999999999999E-3</v>
+        <v>2.392E-3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="13">
-        <v>180.11537999999999</v>
-      </c>
-      <c r="H27" s="13">
-        <v>-1.081</v>
+        <v>86</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="5">
+        <v>70.363154199999997</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-2.8627305999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5">
-        <v>3.9789999999999999E-3</v>
+        <v>2.1919999999999999E-3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="13">
-        <v>214.60678999999999</v>
-      </c>
-      <c r="H28" s="13">
-        <v>-43.381610000000002</v>
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="5">
+        <v>24.177708299999999</v>
+      </c>
+      <c r="H28" s="5">
+        <v>15.738861099999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5">
-        <v>7.012E-3</v>
+        <v>1.8652999999999999E-2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="13">
-        <v>344.17403999999999</v>
-      </c>
-      <c r="H29" s="13">
-        <v>-36.772860000000001</v>
+        <v>86</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="5">
+        <v>199.05175</v>
+      </c>
+      <c r="H29" s="5">
+        <v>30.944583000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5">
-        <v>7.5699999999999997E-4</v>
+        <v>7.5810000000000001E-3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="13">
-        <v>359.46008</v>
-      </c>
-      <c r="H30" s="13">
-        <v>-32.555970000000002</v>
+      <c r="G30" s="5">
+        <v>218.68700000000001</v>
+      </c>
+      <c r="H30" s="5">
+        <v>48.672167000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5">
-        <v>4.3499999999999997E-3</v>
+        <v>8.8559999999999993E-3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="13">
-        <v>64.41704</v>
-      </c>
-      <c r="H31" s="13">
-        <v>-62.777859999999997</v>
+        <v>86</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="5">
+        <v>216.90258299999999</v>
+      </c>
+      <c r="H31" s="5">
+        <v>41.254167000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B32" s="5">
-        <v>6.509E-3</v>
+        <v>1.5410999999999999E-2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="13">
-        <v>78.013750000000002</v>
-      </c>
-      <c r="H32" s="13">
-        <v>-15.69783</v>
+        <v>86</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="5">
+        <v>29.897500000000001</v>
+      </c>
+      <c r="H32" s="5">
+        <v>14.005444000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B33" s="5">
-        <v>3.349E-3</v>
+        <v>1.917E-2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="13">
-        <v>162.81075000000001</v>
-      </c>
-      <c r="H33" s="13">
-        <v>5.8496699999999997</v>
+      <c r="G33" s="5">
+        <v>60.577083000000002</v>
+      </c>
+      <c r="H33" s="5">
+        <v>25.818556000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5">
-        <v>2.5119999999999999E-3</v>
+        <v>4.9500000000000004E-3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="13">
-        <v>156.28079</v>
-      </c>
-      <c r="H34" s="13">
-        <v>17.154060000000001</v>
+        <v>86</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="5">
+        <v>274.96587499999998</v>
+      </c>
+      <c r="H34" s="5">
+        <v>74.565250000000006</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B35" s="5">
-        <v>2.5950000000000001E-3</v>
+        <v>7.4190000000000002E-3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="13">
-        <v>160.97389999999999</v>
-      </c>
-      <c r="H35" s="13">
-        <v>11.671559999999999</v>
+      <c r="G35" s="5">
+        <v>218.224208</v>
+      </c>
+      <c r="H35" s="5">
+        <v>11.597028</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B36" s="5">
-        <v>2.7900000000000001E-2</v>
+        <v>2.5094000000000002E-2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="13">
-        <v>213.71710999999999</v>
-      </c>
-      <c r="H36" s="13">
-        <v>36.791269999999997</v>
+        <v>86</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="5">
+        <v>126.70483299999999</v>
+      </c>
+      <c r="H36" s="5">
+        <v>20.375499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B37" s="5">
-        <v>0.03</v>
+        <v>1.9325999999999999E-2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="13">
-        <v>154.76957999999999</v>
-      </c>
-      <c r="H37" s="13">
-        <v>46.456470000000003</v>
+        <v>86</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="5">
+        <v>173.65204199999999</v>
+      </c>
+      <c r="H37" s="5">
+        <v>54.890110999999997</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1919999999999999E-3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="13">
-        <v>257.43007999999998</v>
-      </c>
-      <c r="H38" s="13">
-        <v>36.41892</v>
+        <v>86</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="5">
+        <v>24.200666999999999</v>
+      </c>
+      <c r="H38" s="5">
+        <v>15.758611</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B39" s="5">
-        <v>1.9383000000000001E-2</v>
+        <v>2.1687999999999999E-2</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="5">
-        <v>319.11866700000002</v>
+        <v>163.97429199999999</v>
       </c>
       <c r="H39" s="5">
-        <v>-0.82769400000000004</v>
+        <v>36.863332999999997</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B40" s="5">
-        <v>1.3300000000000001E-4</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="5">
-        <v>128.34182999999999</v>
+        <v>154.58045799999999</v>
       </c>
       <c r="H40" s="5">
-        <v>52.530940000000001</v>
+        <v>41.427582999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B41" s="5">
-        <v>9.8069999999999997E-3</v>
+        <v>2.8313000000000001E-2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="5">
-        <v>157.44506999999999</v>
+        <v>284.51704000000001</v>
       </c>
       <c r="H41" s="5">
-        <v>13.020479999999999</v>
+        <v>43.939610000000002</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B42" s="5">
-        <v>4.2529999999999998E-3</v>
+        <v>8.0590000000000002E-3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="5">
-        <v>181.030417</v>
+        <v>111.68196</v>
       </c>
       <c r="H42" s="5">
-        <v>62.500332999999998</v>
+        <v>85.764359999999996</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B43" s="5">
-        <v>2.392E-3</v>
+        <v>1.4267E-2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G43" s="5">
-        <v>70.363154199999997</v>
+        <v>357.85054200000002</v>
       </c>
       <c r="H43" s="5">
-        <v>-2.8627305999999999</v>
+        <v>20.110638999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B44" s="5">
-        <v>2.1919999999999999E-3</v>
+        <v>7.1549999999999999E-3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" s="5">
-        <v>24.177708299999999</v>
+        <v>236.41249999999999</v>
       </c>
       <c r="H44" s="5">
-        <v>15.738861099999999</v>
+        <v>28.088667000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B45" s="5">
-        <v>1.8652999999999999E-2</v>
+        <v>2.9123E-2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="G45" s="5">
-        <v>199.05175</v>
+        <v>228.283625</v>
       </c>
       <c r="H45" s="5">
-        <v>30.944583000000002</v>
+        <v>41.261139</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B46" s="5">
-        <v>7.5810000000000001E-3</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G46" s="5">
-        <v>218.68700000000001</v>
+        <v>154.5675</v>
       </c>
       <c r="H46" s="5">
-        <v>48.672167000000002</v>
+        <v>41.441277999999997</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B47" s="5">
-        <v>8.8559999999999993E-3</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="5">
-        <v>216.90258299999999</v>
-      </c>
-      <c r="H47" s="5">
-        <v>41.254167000000002</v>
+        <v>139</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="13">
+        <v>210.75345999999999</v>
+      </c>
+      <c r="H47" s="13">
+        <v>54.242440000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B48" s="5">
-        <v>1.5410999999999999E-2</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="5">
-        <v>29.897500000000001</v>
-      </c>
-      <c r="H48" s="5">
-        <v>14.005444000000001</v>
+        <v>139</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="13">
+        <v>308.68454000000003</v>
+      </c>
+      <c r="H48" s="13">
+        <v>60.121940000000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B49" s="5">
-        <v>1.917E-2</v>
+        <v>4.37E-4</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="5">
-        <v>60.577083000000002</v>
-      </c>
-      <c r="H49" s="5">
-        <v>25.818556000000001</v>
+      <c r="G49" s="13">
+        <v>114.32092</v>
+      </c>
+      <c r="H49" s="13">
+        <v>65.59939</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B50" s="5">
-        <v>4.9500000000000004E-3</v>
+        <v>2.699E-3</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="5">
-        <v>274.96587499999998</v>
-      </c>
-      <c r="H50" s="5">
-        <v>74.565250000000006</v>
+        <v>139</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="13">
+        <v>178.20029</v>
+      </c>
+      <c r="H50" s="13">
+        <v>178.20029</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>7.4190000000000002E-3</v>
+        <v>7.5699999999999997E-4</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="5">
-        <v>218.224208</v>
-      </c>
-      <c r="H51" s="5">
-        <v>11.597028</v>
+      <c r="G51" s="13">
+        <v>359.46008</v>
+      </c>
+      <c r="H51" s="13">
+        <v>-32.555970000000002</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B52" s="5">
-        <v>2.5094000000000002E-2</v>
+        <v>6.509E-3</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="5">
-        <v>126.70483299999999</v>
-      </c>
-      <c r="H52" s="5">
-        <v>20.375499999999999</v>
+        <v>139</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="13">
+        <v>78.013750000000002</v>
+      </c>
+      <c r="H52" s="13">
+        <v>-15.69783</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B53" s="5">
-        <v>1.9325999999999999E-2</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="5">
-        <v>173.65204199999999</v>
-      </c>
-      <c r="H53" s="5">
-        <v>54.890110999999997</v>
+        <v>140</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="13">
+        <v>85.446250000000006</v>
+      </c>
+      <c r="H53" s="13">
+        <v>-64.300190000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B54" s="5">
-        <v>2.1919999999999999E-3</v>
+        <v>4.6930000000000001E-3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="5">
-        <v>24.200666999999999</v>
-      </c>
-      <c r="H54" s="5">
-        <v>15.758611</v>
+        <v>140</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="13">
+        <v>41.503459999999997</v>
+      </c>
+      <c r="H54" s="13">
+        <v>-7.5723099999999999</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B55" s="5">
-        <v>2.1687999999999999E-2</v>
+        <v>4.2399999999999998E-3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="5">
-        <v>163.97429199999999</v>
-      </c>
-      <c r="H55" s="5">
-        <v>36.863332999999997</v>
+      <c r="G55" s="13">
+        <v>41.55742</v>
+      </c>
+      <c r="H55" s="13">
+        <v>-30.229189999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B56" s="5">
-        <v>1.9750000000000002E-3</v>
+        <v>4.8869999999999999E-3</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="5">
-        <v>154.58045799999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>41.427582999999998</v>
+      <c r="G56" s="13">
+        <v>180.11537999999999</v>
+      </c>
+      <c r="H56" s="13">
+        <v>-1.081</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5">
-        <v>2.8313000000000001E-2</v>
+        <v>3.9789999999999999E-3</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="5">
-        <v>284.51704000000001</v>
-      </c>
-      <c r="H57" s="5">
-        <v>43.939610000000002</v>
+      <c r="G57" s="13">
+        <v>214.60678999999999</v>
+      </c>
+      <c r="H57" s="13">
+        <v>-43.381610000000002</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B58" s="5">
-        <v>8.0590000000000002E-3</v>
+        <v>7.012E-3</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="5">
-        <v>111.68196</v>
-      </c>
-      <c r="H58" s="5">
-        <v>85.764359999999996</v>
+      <c r="G58" s="13">
+        <v>344.17403999999999</v>
+      </c>
+      <c r="H58" s="13">
+        <v>-36.772860000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5">
-        <v>1.4267E-2</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" s="5">
-        <v>357.85054200000002</v>
-      </c>
-      <c r="H59" s="5">
-        <v>20.110638999999999</v>
+        <v>140</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="13">
+        <v>64.41704</v>
+      </c>
+      <c r="H59" s="13">
+        <v>-62.777859999999997</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="B60" s="5">
-        <v>7.1549999999999999E-3</v>
+        <v>3.349E-3</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="5">
-        <v>236.41249999999999</v>
-      </c>
-      <c r="H60" s="5">
-        <v>28.088667000000001</v>
+        <v>140</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="13">
+        <v>162.81075000000001</v>
+      </c>
+      <c r="H60" s="13">
+        <v>5.8496699999999997</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B61" s="5">
-        <v>1.9750000000000002E-3</v>
+        <v>2.5119999999999999E-3</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" s="5">
-        <v>154.5675</v>
-      </c>
-      <c r="H61" s="5">
-        <v>41.441277999999997</v>
+        <v>140</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="13">
+        <v>156.28079</v>
+      </c>
+      <c r="H61" s="13">
+        <v>17.154060000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>2.9123E-2</v>
+        <v>2.5950000000000001E-3</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="5">
-        <v>228.283625</v>
-      </c>
-      <c r="H62" s="5">
-        <v>41.261139</v>
+        <v>140</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="13">
+        <v>160.97389999999999</v>
+      </c>
+      <c r="H62" s="13">
+        <v>11.671559999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:H64">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/lists/list.xlsx
+++ b/lists/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-9560" windowWidth="18300" windowHeight="21140"/>
+    <workbookView xWindow="43900" yWindow="-9580" windowWidth="18300" windowHeight="20780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - list" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,11 +608,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1748,8 +1772,8 @@
   <dimension ref="A1:IV62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
